--- a/Data/Entities/OpenNGS/OpenNGS.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\Survivor\Data\Entities\OpenNGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF857F9-6B87-4601-A52A-89F27CF364D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B3A7C-DF8B-41A0-932E-2B0C49D56D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="942" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="942" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="34" r:id="rId1"/>
-    <sheet name="Core" sheetId="33" r:id="rId2"/>
-    <sheet name="Common" sheetId="20" r:id="rId3"/>
+    <sheet name="OpenNGS.Core" sheetId="33" r:id="rId2"/>
+    <sheet name="OpenNGS.Common" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="B" localSheetId="0">#REF!</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="113">
   <si>
     <t>Package</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>列1</t>
-  </si>
-  <si>
-    <t>OpenNGS</t>
   </si>
   <si>
     <t>NGSText</t>
@@ -389,6 +386,18 @@
   </si>
   <si>
     <t>属性集</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenNGS.Core</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenNGS.Common</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -408,22 +417,26 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2263,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -2315,339 +2328,339 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>10</v>
+      <c r="A3" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
+      <c r="A7" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2695,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,10 +2709,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>5</v>
@@ -2707,27 +2720,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2741,10 +2754,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>5</v>
@@ -2752,27 +2765,27 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>5</v>
@@ -2797,27 +2810,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,10 +2844,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>5</v>
@@ -2842,27 +2855,27 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,10 +2889,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>5</v>
@@ -2887,27 +2900,27 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2921,10 +2934,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>5</v>
@@ -2936,7 +2949,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2950,10 +2963,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>5</v>
@@ -2961,47 +2974,47 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C32" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D33" s="9">
         <v>2</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,10 +3028,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>5</v>
@@ -3026,67 +3039,67 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="9">
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="9">
         <v>3</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,10 +3113,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>5</v>
@@ -3111,82 +3124,82 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C45" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="9">
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D46" s="9">
         <v>2</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="9">
         <v>3</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="9">
         <v>4</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,7 +3208,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3209,10 +3222,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>5</v>
@@ -3220,83 +3233,83 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D53" s="9">
         <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D54" s="9">
         <v>2</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D55" s="9">
         <v>3</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D56" s="9">
         <v>4</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3310,10 +3323,10 @@
         <v>4</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>5</v>
@@ -3321,45 +3334,45 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D61" s="9">
         <v>1</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D62" s="9">
         <v>2</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,10 +3386,10 @@
         <v>4</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>5</v>
@@ -3384,22 +3397,22 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D70" s="9">
         <v>1</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,35 +3420,35 @@
         <v>1</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="9">
         <v>2</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D72" s="9">
         <v>3</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,7 +3456,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>4</v>
@@ -3453,7 +3466,7 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3517,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3536,13 +3549,13 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -3557,10 +3570,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -3569,66 +3582,66 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3642,10 +3655,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -3653,138 +3666,138 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D17" s="2">
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D18" s="2">
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D19" s="2">
         <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D20" s="2">
         <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">

--- a/Data/Entities/OpenNGS/OpenNGS.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\openngs-unity\Data\Entities\OpenNGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B3A7C-DF8B-41A0-932E-2B0C49D56D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B861F6-2D18-4FF5-A8A5-7675F2E54E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="942" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="942" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="34" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
   <si>
     <t>Package</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>TableType</t>
-  </si>
-  <si>
-    <t>列1</t>
   </si>
   <si>
     <t>NGSText</t>
@@ -398,17 +395,45 @@
   </si>
   <si>
     <t>OpenNGS.Common</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>RESULT_TYPE_FAILED</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>RESULT_TYPE_SUCCESS</t>
+  </si>
+  <si>
+    <t>RESULT_TYPE_NONE</t>
+  </si>
+  <si>
+    <t>RESULT_TYPE</t>
+  </si>
+  <si>
+    <t>结果类型</t>
+  </si>
+  <si>
+    <t>OpenNGS.Common</t>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -461,6 +486,17 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -523,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,11 +593,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="112">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -683,12 +728,85 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
+          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
+          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <top style="double">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF000000" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -702,7 +820,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -712,16 +830,17 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -729,7 +848,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -743,7 +862,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -757,7 +876,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -771,7 +890,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -785,7 +904,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -795,16 +914,17 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -836,8 +956,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="9"/>
@@ -847,746 +965,12 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
       <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <u val="none"/>
         <sz val="9"/>
@@ -1596,29 +980,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1640,7 +1001,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -1654,7 +1015,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -1668,7 +1029,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -1678,17 +1039,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1696,7 +1056,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -1710,7 +1070,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -1724,7 +1084,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -1737,14 +1097,772 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1752,7 +1870,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color auto="1"/>
         <name val="微软雅黑"/>
         <family val="2"/>
@@ -1760,22 +1878,18 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{FF546495-304A-44B5-9B63-8028ABF1232B}">
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1788,19 +1902,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J15" totalsRowShown="0">
-  <autoFilter ref="A1:J15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Package" dataDxfId="105"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="104"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Group" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PK" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SK" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TableType" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="列1" dataDxfId="96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:I16" totalsRowShown="0">
+  <autoFilter ref="A1:I16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Package" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Group" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PK" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SK" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TableType" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1810,12 +1923,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5A937537-34A7-40E3-8564-1D5C321B1B3F}" name="AttributesInt64" displayName="AttributesInt64" ref="A12:F13" totalsRowShown="0">
   <autoFilter ref="A12:F13" xr:uid="{5A937537-34A7-40E3-8564-1D5C321B1B3F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{682F6997-6D77-47C4-9598-26F63F72A85A}" name="Name" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{06349B02-DBE1-445D-9785-B4DC1A557FF9}" name="Type" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{5B46BBE7-167B-404D-B907-04C392C2095A}" name="Description" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{6452BDBA-76D3-48FC-9FD2-4A5BD1C2D2E7}" name="Tag" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{9BA244B2-5189-489F-979B-383236C89D85}" name="Attributes" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{24EB471E-CE64-473A-9751-1388CF9965CA}" name="Scope" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{682F6997-6D77-47C4-9598-26F63F72A85A}" name="Name" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{06349B02-DBE1-445D-9785-B4DC1A557FF9}" name="Type" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{5B46BBE7-167B-404D-B907-04C392C2095A}" name="Description" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{6452BDBA-76D3-48FC-9FD2-4A5BD1C2D2E7}" name="Tag" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{9BA244B2-5189-489F-979B-383236C89D85}" name="Attributes" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{24EB471E-CE64-473A-9751-1388CF9965CA}" name="Scope" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1825,12 +1938,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{10D34DC2-D4AD-4346-A992-4ABF8B6563CD}" name="AttributesSingle" displayName="AttributesSingle" ref="A17:F18" totalsRowShown="0">
   <autoFilter ref="A17:F18" xr:uid="{10D34DC2-D4AD-4346-A992-4ABF8B6563CD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1B463D01-1CD1-40DB-83BF-37E20E1BF05A}" name="Name" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{85DC4E83-8C0D-4CD4-AA79-01939DED8B98}" name="Type" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{084D20BF-3408-4C7B-B278-DF51A5987862}" name="Description" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{66571B38-E682-4270-B72D-A8816E5FD7F1}" name="Tag" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{33C96FAE-6EC5-4B2B-AFB3-07B3D4EC4A33}" name="Attributes" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{C2DC4AA5-0776-43DC-B014-B9B9C73AECF0}" name="Scope" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{1B463D01-1CD1-40DB-83BF-37E20E1BF05A}" name="Name" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{85DC4E83-8C0D-4CD4-AA79-01939DED8B98}" name="Type" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{084D20BF-3408-4C7B-B278-DF51A5987862}" name="Description" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{66571B38-E682-4270-B72D-A8816E5FD7F1}" name="Tag" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{33C96FAE-6EC5-4B2B-AFB3-07B3D4EC4A33}" name="Attributes" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{C2DC4AA5-0776-43DC-B014-B9B9C73AECF0}" name="Scope" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1840,12 +1953,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{701EC60A-7FAC-468C-BEE3-97247F54174B}" name="AttributesDouble" displayName="AttributesDouble" ref="A21:F22" totalsRowShown="0">
   <autoFilter ref="A21:F22" xr:uid="{701EC60A-7FAC-468C-BEE3-97247F54174B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E2075794-A830-4F78-A5B5-7C0A54CA7E04}" name="Name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{DE5921A1-F8AF-4356-B2B5-9B0559159E4F}" name="Type" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{DCD664D1-236F-448F-9F91-D525E984167A}" name="Description" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{9ACBDCBD-5C43-4A02-82A1-1D724CC50C40}" name="Tag" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{C34EC936-0F42-4C16-8B10-BFA2356FB181}" name="Attributes" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{5C929E74-40E2-450F-AEB8-392F1C87776C}" name="Scope" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{E2075794-A830-4F78-A5B5-7C0A54CA7E04}" name="Name" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{DE5921A1-F8AF-4356-B2B5-9B0559159E4F}" name="Type" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{DCD664D1-236F-448F-9F91-D525E984167A}" name="Description" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{9ACBDCBD-5C43-4A02-82A1-1D724CC50C40}" name="Tag" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{C34EC936-0F42-4C16-8B10-BFA2356FB181}" name="Attributes" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{5C929E74-40E2-450F-AEB8-392F1C87776C}" name="Scope" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1855,12 +1968,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39051EE9-10D8-4BFC-9DC4-63B1BEFCB904}" name="Attribute" displayName="Attribute" ref="A69:F73" totalsRowShown="0">
   <autoFilter ref="A69:F73" xr:uid="{00000000-0009-0000-0100-000030000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FCD21356-A1C7-4AE9-9874-9D0E1141DC16}" name="Name" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{876E4E63-20C6-4CC0-8C27-2FC85DDA4758}" name="Type" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{FDEF932A-7466-4DFF-A7CA-C2B03CFC860C}" name="Description" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{79885AF6-0B9F-4B8D-ACDA-35B53BCFFAB9}" name="Tag" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{A1454099-53B3-4F45-A287-B901334AF220}" name="Attributes" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{C6BA1766-838D-44D7-9F62-C434E2D4A6D5}" name="Scope" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{FCD21356-A1C7-4AE9-9874-9D0E1141DC16}" name="Name" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{876E4E63-20C6-4CC0-8C27-2FC85DDA4758}" name="Type" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{FDEF932A-7466-4DFF-A7CA-C2B03CFC860C}" name="Description" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{79885AF6-0B9F-4B8D-ACDA-35B53BCFFAB9}" name="Tag" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{A1454099-53B3-4F45-A287-B901334AF220}" name="Attributes" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{C6BA1766-838D-44D7-9F62-C434E2D4A6D5}" name="Scope" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1870,12 +1983,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="OBJECT_TYPE" displayName="OBJECT_TYPE" ref="A12:F20" totalsRowShown="0">
   <autoFilter ref="A12:F20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Name" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Type" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Description" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Tag" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Attributes" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Scope" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Name" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Type" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Description" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Tag" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Attributes" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Scope" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1885,14 +1998,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="QUEUE_STATUS" displayName="QUEUE_STATUS" ref="A4:F7" totalsRowShown="0">
   <autoFilter ref="A4:F7" xr:uid="{00000000-0009-0000-0100-00004C000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Type" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Description" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Tag" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Attributes" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Scope" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Type" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Description" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Tag" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Attributes" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Scope" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FCC51889-FF5B-4613-9FE7-6C491949C607}" name="RESULT_TYPE" displayName="RESULT_TYPE" ref="A25:F28" totalsRowShown="0">
+  <autoFilter ref="A25:F28" xr:uid="{FCC51889-FF5B-4613-9FE7-6C491949C607}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AA6E6A35-7002-4FD6-9A74-3F0F6B6BC66A}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{BD4E9238-5892-44BB-80E6-3D2695FF31F5}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{ACCA4A11-44D0-42E9-9FEE-48FFF50602DB}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{DB7A157B-DDE8-45E8-A619-E23CB9C88B7C}" name="Tag"/>
+    <tableColumn id="5" xr3:uid="{0F3AADA8-FA8A-4110-A093-AED288220957}" name="Attributes"/>
+    <tableColumn id="6" xr3:uid="{AA6095E9-A2D7-450D-9723-8B4396B26B31}" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1900,12 +2028,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C8BF89D1-41D8-453C-8C48-2BC2A37E2908}" name="NGSText" displayName="NGSText" ref="A3:F4" totalsRowShown="0">
   <autoFilter ref="A3:F4" xr:uid="{C8BF89D1-41D8-453C-8C48-2BC2A37E2908}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3621CDCF-3677-44AC-86A2-33CFC929908F}" name="Name" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{3FBD83B2-8445-4569-9FB0-F14D33F83883}" name="Type" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{10EDB017-8D56-4B87-858E-F135B99C083C}" name="Description" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{47607F7D-3B58-49C9-9019-D08CEE9B4611}" name="Tag" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{01D6DEE5-EA62-44B6-B0CC-D81C7A188162}" name="Attributes" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{D01E4ED7-4444-41FC-BEE7-FA28F9D38016}" name="Scope" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{3621CDCF-3677-44AC-86A2-33CFC929908F}" name="Name" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{3FBD83B2-8445-4569-9FB0-F14D33F83883}" name="Type" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{10EDB017-8D56-4B87-858E-F135B99C083C}" name="Description" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{47607F7D-3B58-49C9-9019-D08CEE9B4611}" name="Tag" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{01D6DEE5-EA62-44B6-B0CC-D81C7A188162}" name="Attributes" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{D01E4ED7-4444-41FC-BEE7-FA28F9D38016}" name="Scope" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1915,12 +2043,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{32A5DD93-6D2A-432A-9D1A-B00799B66F36}" name="AttributesInt32" displayName="AttributesInt32" ref="A8:F9" totalsRowShown="0">
   <autoFilter ref="A8:F9" xr:uid="{32A5DD93-6D2A-432A-9D1A-B00799B66F36}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E03C5645-8E8B-451C-AF04-48F59A778132}" name="Name" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{E94A23E4-3AB2-491B-A12C-BD7F94A68778}" name="Type" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{18DF64C9-6924-4A63-8CDE-13ABA455CC78}" name="Description" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{CDE5C5F0-87B1-45C5-A8DA-2DC85969D89F}" name="Tag" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{7AFCDFB4-455B-4734-A35B-051E8AA177BF}" name="Attributes" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{266684E2-AD4C-45D2-96AF-A4749150A2A6}" name="Scope" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{E03C5645-8E8B-451C-AF04-48F59A778132}" name="Name" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{E94A23E4-3AB2-491B-A12C-BD7F94A68778}" name="Type" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{18DF64C9-6924-4A63-8CDE-13ABA455CC78}" name="Description" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{CDE5C5F0-87B1-45C5-A8DA-2DC85969D89F}" name="Tag" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{7AFCDFB4-455B-4734-A35B-051E8AA177BF}" name="Attributes" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{266684E2-AD4C-45D2-96AF-A4749150A2A6}" name="Scope" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1930,12 +2058,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4100445-3319-4DD0-A2BD-DF598CDC3A09}" name="NGSVoid" displayName="NGSVoid" ref="A26:F27" totalsRowShown="0">
   <autoFilter ref="A26:F27" xr:uid="{C4100445-3319-4DD0-A2BD-DF598CDC3A09}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{21FC15EC-A757-48C6-8FCB-DB6C64EAEF45}" name="Name" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{814E04EB-5369-4D1A-BA94-EADA2EE30B29}" name="Type" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{1F7F9AD7-0F29-4838-AFB9-CC2DF8F60EB1}" name="Description" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{8727118F-FB88-42E5-8E51-F5542C70DAF2}" name="Tag" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{AC051739-FACC-43CE-84BB-0244B3C48679}" name="Attributes" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{8ECD7ED8-829B-4BE7-8699-E1B29555C4D1}" name="Scope" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{21FC15EC-A757-48C6-8FCB-DB6C64EAEF45}" name="Name" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{814E04EB-5369-4D1A-BA94-EADA2EE30B29}" name="Type" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{1F7F9AD7-0F29-4838-AFB9-CC2DF8F60EB1}" name="Description" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{8727118F-FB88-42E5-8E51-F5542C70DAF2}" name="Tag" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{AC051739-FACC-43CE-84BB-0244B3C48679}" name="Attributes" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{8ECD7ED8-829B-4BE7-8699-E1B29555C4D1}" name="Scope" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1945,12 +2073,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{64269DC4-59F5-4BCC-94F8-14E5C2D57D6E}" name="NGSVector2" displayName="NGSVector2" ref="A31:F33" totalsRowShown="0">
   <autoFilter ref="A31:F33" xr:uid="{64269DC4-59F5-4BCC-94F8-14E5C2D57D6E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EB5CB49B-5EA5-4B4B-8E6C-DD1BFCEF9F7C}" name="Name" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{0ED096D5-8646-4A0C-A6BC-3BD832D401BB}" name="Type" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{8551702E-FDF3-419E-8960-3BC2A64E3D1C}" name="Description" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{75C6385F-03D3-4DAE-BD5C-F99581753A54}" name="Tag" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{9B0EF84A-DC0E-4147-B90E-F301896FD73B}" name="Attributes" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{5CB9E731-35A0-4B1C-AF4A-78CD7AEAB98E}" name="Scope" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{EB5CB49B-5EA5-4B4B-8E6C-DD1BFCEF9F7C}" name="Name" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{0ED096D5-8646-4A0C-A6BC-3BD832D401BB}" name="Type" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{8551702E-FDF3-419E-8960-3BC2A64E3D1C}" name="Description" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{75C6385F-03D3-4DAE-BD5C-F99581753A54}" name="Tag" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{9B0EF84A-DC0E-4147-B90E-F301896FD73B}" name="Attributes" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{5CB9E731-35A0-4B1C-AF4A-78CD7AEAB98E}" name="Scope" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1960,12 +2088,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6C372934-22D2-4C72-AA6F-7269348D2F26}" name="NGSVector3" displayName="NGSVector3" ref="A37:F40" totalsRowShown="0">
   <autoFilter ref="A37:F40" xr:uid="{6C372934-22D2-4C72-AA6F-7269348D2F26}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6A5A55C8-92F2-4A32-A562-0C72E7406879}" name="Name" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{550C1CAF-DBCD-4B65-8336-52C960A91A91}" name="Type" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{C0B2E44A-8A00-44FB-B2D1-EBF2287C8A27}" name="Description" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{6C786092-DE2A-4E49-AAE3-649A445658CE}" name="Tag" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{6072E01C-88C6-46E6-858B-8D9318855A49}" name="Attributes" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{CB585010-720C-4EFB-B30D-80BF1F7875C9}" name="Scope" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{6A5A55C8-92F2-4A32-A562-0C72E7406879}" name="Name" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{550C1CAF-DBCD-4B65-8336-52C960A91A91}" name="Type" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{C0B2E44A-8A00-44FB-B2D1-EBF2287C8A27}" name="Description" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{6C786092-DE2A-4E49-AAE3-649A445658CE}" name="Tag" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{6072E01C-88C6-46E6-858B-8D9318855A49}" name="Attributes" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{CB585010-720C-4EFB-B30D-80BF1F7875C9}" name="Scope" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1975,12 +2103,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DAFFE512-0A11-49F2-9FA8-9718861CE919}" name="NGSVector4" displayName="NGSVector4" ref="A44:F48" totalsRowShown="0">
   <autoFilter ref="A44:F48" xr:uid="{DAFFE512-0A11-49F2-9FA8-9718861CE919}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{91C16402-8342-425C-905C-661158E0507F}" name="Name" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{5E51ECB1-6086-4BA6-87EC-BEFB28B223A8}" name="Type" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{EADCC71F-9827-4545-B71A-25404048CE61}" name="Description" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{85145056-A719-4B56-BCC9-68E670AB7F41}" name="Tag" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{B00B58B3-A972-46C0-84FE-627388E68F1A}" name="Attributes" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{4689628A-03F8-4EC6-B9C4-BB2C2286F47A}" name="Scope" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{91C16402-8342-425C-905C-661158E0507F}" name="Name" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{5E51ECB1-6086-4BA6-87EC-BEFB28B223A8}" name="Type" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{EADCC71F-9827-4545-B71A-25404048CE61}" name="Description" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{85145056-A719-4B56-BCC9-68E670AB7F41}" name="Tag" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B00B58B3-A972-46C0-84FE-627388E68F1A}" name="Attributes" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{4689628A-03F8-4EC6-B9C4-BB2C2286F47A}" name="Scope" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1990,12 +2118,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{13384A74-35C4-4F01-97BD-C2332C8BDEAC}" name="NGSMessage" displayName="NGSMessage" ref="A52:F56" totalsRowShown="0">
   <autoFilter ref="A52:F56" xr:uid="{13384A74-35C4-4F01-97BD-C2332C8BDEAC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{712D3E21-1444-40F7-B38E-9CBA8AF50CD1}" name="Name" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{5A76BD55-D8D8-4AC8-BC35-F5B97DA0DF75}" name="Type" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{6E4BFAAE-BEE2-44A8-B7FE-374BBB7EC8E9}" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{0768F323-8AE0-4278-8CE8-0298B063E6C0}" name="Tag" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{0225D7AD-9749-4056-93E8-8CB796FD3B57}" name="Attributes" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{8CE324BB-1128-4125-9EB5-08F4E11E9F31}" name="Scope" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{712D3E21-1444-40F7-B38E-9CBA8AF50CD1}" name="Name" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{5A76BD55-D8D8-4AC8-BC35-F5B97DA0DF75}" name="Type" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{6E4BFAAE-BEE2-44A8-B7FE-374BBB7EC8E9}" name="Description" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{0768F323-8AE0-4278-8CE8-0298B063E6C0}" name="Tag" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{0225D7AD-9749-4056-93E8-8CB796FD3B57}" name="Attributes" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{8CE324BB-1128-4125-9EB5-08F4E11E9F31}" name="Scope" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2005,12 +2133,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1C0B43A6-9FF0-4576-A820-FD5075EFC2B7}" name="NGSResult" displayName="NGSResult" ref="A60:F62" totalsRowShown="0">
   <autoFilter ref="A60:F62" xr:uid="{1C0B43A6-9FF0-4576-A820-FD5075EFC2B7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7687CF44-B694-4AC1-B9DD-7AC8489D8E91}" name="Name" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{4BD407A2-1878-4FAD-85D4-5165FDDB1C57}" name="Type" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{1F908ED1-8041-43A1-8309-6EBEF663E61B}" name="Description" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{74AD65D6-A41D-43D7-B601-56453529EDC0}" name="Tag" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{2945B93D-030B-4C96-85AF-03C27D61D01A}" name="Attributes" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{C54B238C-ECF0-4A14-8A7F-42A3716AF6DD}" name="Scope" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{7687CF44-B694-4AC1-B9DD-7AC8489D8E91}" name="Name" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{4BD407A2-1878-4FAD-85D4-5165FDDB1C57}" name="Type" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{1F908ED1-8041-43A1-8309-6EBEF663E61B}" name="Description" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{74AD65D6-A41D-43D7-B601-56453529EDC0}" name="Tag" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{2945B93D-030B-4C96-85AF-03C27D61D01A}" name="Attributes" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{C54B238C-ECF0-4A14-8A7F-42A3716AF6DD}" name="Scope" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2274,15 +2402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.08203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" style="6" customWidth="1"/>
@@ -2291,11 +2419,10 @@
     <col min="7" max="7" width="6" style="6" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2323,344 +2450,360 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>15</v>
+      <c r="E16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +2838,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,10 +2852,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>5</v>
@@ -2720,27 +2863,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,10 +2897,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>5</v>
@@ -2765,27 +2908,27 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,10 +2942,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>5</v>
@@ -2810,27 +2953,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,10 +2987,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>5</v>
@@ -2855,27 +2998,27 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,10 +3032,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>5</v>
@@ -2900,27 +3043,27 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,10 +3077,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>5</v>
@@ -2949,7 +3092,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2963,10 +3106,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>5</v>
@@ -2974,47 +3117,47 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="C32" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D33" s="9">
         <v>2</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,10 +3171,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>5</v>
@@ -3039,67 +3182,67 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="9">
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="9">
         <v>3</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,10 +3256,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>5</v>
@@ -3124,82 +3267,82 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="C45" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="9">
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D46" s="9">
         <v>2</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="9">
         <v>3</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="9">
         <v>4</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,7 +3351,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,10 +3365,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>5</v>
@@ -3233,83 +3376,83 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D53" s="9">
         <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D54" s="9">
         <v>2</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D55" s="9">
         <v>3</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="D56" s="9">
         <v>4</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,10 +3466,10 @@
         <v>4</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>5</v>
@@ -3334,45 +3477,45 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D61" s="9">
         <v>1</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D62" s="9">
         <v>2</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3386,10 +3529,10 @@
         <v>4</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>5</v>
@@ -3397,22 +3540,22 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="9">
         <v>1</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,35 +3563,35 @@
         <v>1</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="9">
         <v>2</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D72" s="9">
         <v>3</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3456,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>4</v>
@@ -3466,7 +3609,7 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3530,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3549,13 +3692,13 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -3570,10 +3713,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -3582,66 +3725,66 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3655,10 +3798,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -3666,138 +3809,222 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="2">
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D18" s="2">
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D19" s="2">
         <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3812,9 +4039,10 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
